--- a/data/georgia_census/imereti/xaragauli/education_graduates.xlsx
+++ b/data/georgia_census/imereti/xaragauli/education_graduates.xlsx
@@ -1853,13 +1853,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F320B49A-AD73-4C32-8EC3-2CDD1FBECEC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6667FDB-7B3C-4F38-99D7-B1B02B3735AC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C95BDBF7-B7F9-430D-9766-F5D23A3FBA14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0862DEC1-C7E4-4F52-B209-CEB92A2EF396}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AD1E1E-739B-44A3-9477-B12A09910AFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0615F12-79C5-449D-9A23-DCA0B07E0407}"/>
 </file>